--- a/Check_rating.xlsx
+++ b/Check_rating.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="11">
   <si>
     <t>Широков</t>
   </si>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,12 +722,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>310.10000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>300.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>$B1+$G$21/10</f>
+        <v>312.85250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>$B2+$G$22/10</f>
+        <v>312.35500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>B3-$G$22/20</f>
+        <v>299.17250000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>$B4-$G$21/20</f>
+        <v>322.67375000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>$B6+$G$23/10</f>
+        <v>315.01050000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <f>$B7+$G$24/10</f>
+        <v>315.11296874999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f>B8-$G$23/20</f>
+        <v>298.09350000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>B9-$G$24/20</f>
+        <v>321.29476562500003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>$B11+$G$25/10</f>
+        <v>317.51306171875001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f>B12-$G$25/20</f>
+        <v>313.86168789062498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f>$B13+$G$26/10</f>
+        <v>301.17353164062501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f>B14-$G$26/20</f>
+        <v>319.75474980468755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f>$B$1</f>
+        <v>310</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>$B$4</f>
+        <v>324.10000000000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f>0.25*(100-B21+D21)</f>
+        <v>28.525000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f>$B$2</f>
+        <v>310.10000000000002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f>$B$3</f>
+        <v>300.3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>0.25*(100-B22+D22)</f>
+        <v>22.549999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>$B$8</f>
+        <v>299.17250000000001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>$B$6</f>
+        <v>312.85250000000002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f>0.25*(100-D23+B23)</f>
+        <v>21.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f>$B$9</f>
+        <v>322.67375000000004</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>$B$7</f>
+        <v>312.35500000000002</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <f>0.25*(100-D24+B24)</f>
+        <v>27.579687500000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f>$B$11</f>
+        <v>315.01050000000004</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>$B$12</f>
+        <v>315.11296874999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f>0.25*(100-B25+D25)</f>
+        <v>25.025617187499989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f>$B$14</f>
+        <v>321.29476562500003</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f>$B$13</f>
+        <v>298.09350000000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f>0.25*(100-D26+B26)</f>
+        <v>30.800316406250005</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>